--- a/python/excel/src.xlsx
+++ b/python/excel/src.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vraparthi/Documents/github/coding_examples/python/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF096673-289F-7A4B-9562-DFB3804FD180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9437B7F3-129C-B644-9728-E9550B8D2C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{CC78D54F-607B-0842-A55C-B3D7CFA8521C}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{1E26A40A-1B01-D649-83BD-13F21E4CE643}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>A</t>
   </si>
@@ -64,6 +57,87 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Green Light Checklist</t>
+  </si>
+  <si>
+    <t>IRB Used</t>
+  </si>
+  <si>
+    <t>Initial IRB Approval Date</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>E&amp;I</t>
+  </si>
+  <si>
+    <t>23-Oct-2012</t>
+  </si>
+  <si>
+    <t>24-Oct-2012</t>
+  </si>
+  <si>
+    <t>25-Oct-2012</t>
+  </si>
+  <si>
+    <t>26-Oct-2012</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -99,8 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +489,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1034CD3-10D0-F84A-B864-77F366833EAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD682F9-B2A4-2B48-8456-AC6FCCD7573D}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC3D55D-3B33-ED46-AC3F-2F5720F69833}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -425,21 +676,80 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59FC9E9-8936-C144-8020-CE7BCB78D348}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -447,18 +757,26 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
